--- a/biology/Botanique/Hypnaceae/Hypnaceae.xlsx
+++ b/biology/Botanique/Hypnaceae/Hypnaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hypnaceae ou Hypnacées est une vaste famille de mousses répandue sur la majeure partie de la planète.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 juin 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 juin 2013) :
 genre Andoa
 genre Breidleria
 genre Bryocrumia
@@ -569,7 +583,7 @@
 genre Taxiphyllum
 genre Trachythecium
 genre Vesicularia
-Selon ITIS      (9 juin 2013)[2] :
+Selon ITIS      (9 juin 2013) :
 genre Bryocrumia Anderson
 genre Callicladium Crum
 genre Chryso-hypnum Hampe
@@ -594,7 +608,7 @@
 genre Taxiphyllum Fleisch.
 genre Tripterocladium (C. Müll.) Jaeg.
 genre Vesicularia (C. Muell.) C. Muell.
-Selon NCBI  (9 juin 2013)[3] :
+Selon NCBI  (9 juin 2013) :
 genre Andoa
 genre Bardunovia
 genre Bryocrumia
@@ -636,7 +650,7 @@
 genre Taxiphyllopsis
 genre Taxiphyllum
 genre Vesicularia
-Selon Tropicos                                           (9 juin 2013)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 genre Andoa Ochyra
 genre Austrohondaella Z. Iwats., H.P. Ramsay &amp; Fife
 genre Breidleria Loeske
@@ -702,7 +716,7 @@
 genre Trachythecium M. Fleisch.
 genre Tutigaea Ando
 genre Vesicularia (Müll. Hal.) Müll. Hal.
-Selon World Register of Marine Species                               (9 juin 2013)[5] :
+Selon World Register of Marine Species                               (9 juin 2013) :
 genre Campylophyllum
 </t>
         </is>
